--- a/选峰表.xlsx
+++ b/选峰表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\快速检测项目\快速检测项目\数据处理\XRF\校外检测结果源文件\汇总\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\快速检测项目\快速检测项目\程序设计\元素定性分析v1\quickly_detect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFF225-7E25-41C7-9C0F-5CE08131D9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD2C909-1031-4959-98B0-4A6773CEFA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
   <si>
     <t>KL3</t>
   </si>
@@ -140,6 +140,29 @@
   <si>
     <t>Si</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sr</t>
   </si>
 </sst>
 </file>
@@ -182,9 +205,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,70 +502,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C786081-2741-4148-A769-D363F8E5E137}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>12622.3</v>
+        <v>14165</v>
       </c>
       <c r="F2">
-        <v>12.622299999999999</v>
+        <v>14.164999999999999</v>
       </c>
       <c r="G2">
-        <v>9.8222986302021031E-2</v>
+        <v>8.7525591246028947E-2</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>28.242139189682955</v>
+        <v>25.112838885407236</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>12614.4</v>
+        <v>14097.8</v>
       </c>
       <c r="F3">
-        <v>12.6144</v>
+        <v>14.097799999999999</v>
       </c>
       <c r="G3">
-        <v>9.8284500253678339E-2</v>
+        <v>8.7942799585750978E-2</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>28.260193745628531</v>
+        <v>25.2345126073497</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -554,25 +576,25 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>10551.2</v>
+        <v>12622.3</v>
       </c>
       <c r="F5">
-        <v>10.551200000000001</v>
+        <v>12.622299999999999</v>
       </c>
       <c r="G5">
-        <v>0.11750322238228826</v>
+        <v>9.8222986302021031E-2</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>33.938803722032198</v>
+        <v>28.242139189682955</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -583,91 +605,91 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>10449.6</v>
+        <v>12614.4</v>
       </c>
       <c r="F6">
-        <v>10.4496</v>
+        <v>12.6144</v>
       </c>
       <c r="G6">
-        <v>0.11864568978716888</v>
+        <v>9.8284500253678339E-2</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>34.278939944132063</v>
+        <v>28.260193745628531</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>9572</v>
+        <v>10551.2</v>
       </c>
       <c r="F8">
-        <v>9.5719999999999992</v>
+        <v>10.551200000000001</v>
       </c>
       <c r="G8">
-        <v>0.12952361053071459</v>
+        <v>0.11750322238228826</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>37.533691294418013</v>
+        <v>33.938803722032198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>9572</v>
+        <v>10449.6</v>
       </c>
       <c r="F9">
-        <v>9.5719999999999992</v>
+        <v>10.4496</v>
       </c>
       <c r="G9">
-        <v>0.12952361053071459</v>
+        <v>0.11864568978716888</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>37.533691294418013</v>
+        <v>34.278939944132063</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -676,27 +698,27 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>8905.2999999999993</v>
+        <v>9572</v>
       </c>
       <c r="F11">
-        <v>8.9052999999999987</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="G11">
-        <v>0.13922046421793766</v>
+        <v>0.12952361053071459</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>40.461696660281483</v>
+        <v>37.533691294418013</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -705,85 +727,85 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>8905.2999999999993</v>
+        <v>9572</v>
       </c>
       <c r="F12">
-        <v>8.9052999999999987</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="G12">
-        <v>0.13922046421793766</v>
+        <v>0.12952361053071459</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>40.461696660281483</v>
+        <v>37.533691294418013</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>8638.9</v>
+        <v>8905.2999999999993</v>
       </c>
       <c r="F14">
-        <v>8.6388999999999996</v>
+        <v>8.9052999999999987</v>
       </c>
       <c r="G14">
-        <v>0.14351364178309739</v>
+        <v>0.13922046421793766</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>41.766768875604228</v>
+        <v>40.461696660281483</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>8615.7999999999993</v>
+        <v>8905.2999999999993</v>
       </c>
       <c r="F15">
-        <v>8.6158000000000001</v>
+        <v>8.9052999999999987</v>
       </c>
       <c r="G15">
-        <v>0.1438984191833608</v>
+        <v>0.13922046421793766</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>41.884010883295176</v>
+        <v>40.461696660281483</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -792,27 +814,27 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8047.8</v>
+        <v>8638.9</v>
       </c>
       <c r="F17">
-        <v>8.0478000000000005</v>
+        <v>8.6388999999999996</v>
       </c>
       <c r="G17">
-        <v>0.15405452421779864</v>
+        <v>0.14351364178309739</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>44.995740625742485</v>
+        <v>41.766768875604228</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -821,27 +843,27 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>8027.9</v>
+        <v>8615.7999999999993</v>
       </c>
       <c r="F18">
-        <v>8.0278999999999989</v>
+        <v>8.6158000000000001</v>
       </c>
       <c r="G18">
-        <v>0.15443640304438275</v>
+        <v>0.1438984191833608</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>45.113413089043618</v>
+        <v>41.884010883295176</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -850,27 +872,27 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>7478.1</v>
+        <v>8047.8</v>
       </c>
       <c r="F20">
-        <v>7.4781000000000004</v>
+        <v>8.0478000000000005</v>
       </c>
       <c r="G20">
-        <v>0.16579077573180354</v>
+        <v>0.15405452421779864</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>48.635946394206961</v>
+        <v>44.995740625742485</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -879,106 +901,106 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>7460.9</v>
+        <v>8027.9</v>
       </c>
       <c r="F21">
-        <v>7.4608999999999996</v>
+        <v>8.0278999999999989</v>
       </c>
       <c r="G21">
-        <v>0.16617298181184575</v>
+        <v>0.15443640304438275</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>48.755353382128064</v>
+        <v>45.113413089043618</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>7058</v>
+        <v>7478.1</v>
       </c>
       <c r="F23">
-        <v>7.0579999999999998</v>
+        <v>7.4781000000000004</v>
       </c>
       <c r="G23">
-        <v>0.17565882686313403</v>
+        <v>0.16579077573180354</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>51.737494217971857</v>
+        <v>48.635946394206961</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>7460.9</v>
+      </c>
+      <c r="F24">
+        <v>7.4608999999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.16617298181184575</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>48.755353382128064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
         <v>7058</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>7.0579999999999998</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>0.17565882686313403</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>51.737494217971857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6403.9</v>
-      </c>
-      <c r="F26" s="1">
-        <v>6.4038999999999993</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.19360077452802202</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>57.485292653882539</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -989,33 +1011,33 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>6390.9</v>
+        <v>7058</v>
       </c>
       <c r="F27">
-        <v>6.3908999999999994</v>
+        <v>7.0579999999999998</v>
       </c>
       <c r="G27">
-        <v>0.19399458605204278</v>
+        <v>0.17565882686313403</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>57.613173487682118</v>
+        <v>51.737494217971857</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -1024,27 +1046,27 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>5898.7</v>
+        <v>6403.9</v>
       </c>
       <c r="F29">
-        <v>5.8986999999999998</v>
+        <v>6.4038999999999993</v>
       </c>
       <c r="G29">
-        <v>0.21018190448742943</v>
+        <v>0.19360077452802202</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>62.941250911267417</v>
+        <v>57.485292653882539</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1053,18 +1075,76 @@
         <v>3</v>
       </c>
       <c r="E30">
+        <v>6390.9</v>
+      </c>
+      <c r="F30">
+        <v>6.3908999999999994</v>
+      </c>
+      <c r="G30">
+        <v>0.19399458605204278</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>57.613173487682118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5898.7</v>
+      </c>
+      <c r="F32">
+        <v>5.8986999999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.21018190448742943</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>62.941250911267417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
         <v>5887.6</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>5.8875999999999999</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>0.21057816427746451</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>63.073535810928767</v>
       </c>
     </row>
@@ -1076,40 +1156,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AC237A-07C1-426C-8FD4-7EE260513B5B}">
-  <dimension ref="A4:I11"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E2">
         <v>4012.7</v>
       </c>
-      <c r="F4">
+      <c r="F2">
         <v>4.0126999999999997</v>
       </c>
-      <c r="G4">
+      <c r="G2">
         <v>0.30896902335086102</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100.24808249421521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>4012.7</v>
+      </c>
+      <c r="F3">
+        <v>4.0126999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.30896902335086102</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>100.24808249421521</v>
       </c>
     </row>
@@ -1121,140 +1230,111 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4012.7</v>
+        <v>3691.7</v>
       </c>
       <c r="F5">
-        <v>4.0126999999999997</v>
+        <v>3.6917</v>
       </c>
       <c r="G5">
-        <v>0.30896902335086102</v>
+        <v>0.33583443941815422</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>100.24808249421521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>113.05778322378671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3691.7</v>
-      </c>
-      <c r="F7">
-        <v>3.6917</v>
-      </c>
-      <c r="G7">
-        <v>0.33583443941815422</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>113.05778322378671</v>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3688.1</v>
+      </c>
+      <c r="F6">
+        <v>3.6880999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.33616225156584695</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>113.22715120410277</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3313.8</v>
+      </c>
+      <c r="F8">
+        <v>3.3138000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.37413241595751101</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>136.64901807869856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3688.1</v>
-      </c>
-      <c r="F8">
-        <v>3.6880999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.33616225156584695</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>113.22715120410277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3313.8</v>
-      </c>
-      <c r="F10">
-        <v>3.3138000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.37413241595751101</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>136.64901807869856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>3311.1</v>
       </c>
-      <c r="F11">
+      <c r="F9">
         <v>3.3110999999999997</v>
       </c>
-      <c r="G11">
+      <c r="G9">
         <v>0.37443749811240978</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>136.8847313331695</v>
       </c>
     </row>
@@ -1266,20 +1346,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DB33F1-60DA-4D53-AD40-CFAB0145BC83}">
-  <dimension ref="A3:I19"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1253.5999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.2535999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.9889917038927889</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>20.344222472615034</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1288,338 +1397,425 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1253.5999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.2535999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.9889917038927889</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>20.344222472615034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>3691.7</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>3.6917</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>0.33583443941815422</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>20.729187447031176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3688.1</v>
-      </c>
-      <c r="F4">
-        <v>3.6880999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.33616225156584695</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>20.749645434021524</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3688.1</v>
+      </c>
+      <c r="F6">
+        <v>3.6880999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.33616225156584695</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>20.749645434021524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>1011.6</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>1.0116000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>1.2255832344800315</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>25.283481149235019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>1011.6</v>
-      </c>
-      <c r="F7">
-        <v>1.0116000000000001</v>
-      </c>
-      <c r="G7">
-        <v>1.2255832344800315</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>25.283481149235019</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1011.6</v>
+      </c>
+      <c r="F9">
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.2255832344800315</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>25.283481149235019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>929.5</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>0.92949999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>1.3338353953738569</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>27.558871897876266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>929.5</v>
-      </c>
-      <c r="F10">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="G10">
-        <v>1.3338353953738569</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>27.558871897876266</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>929.5</v>
+      </c>
+      <c r="F12">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.3338353953738569</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>27.558871897876266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>2622.4</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>2.6224000000000003</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>0.47277303233679069</v>
       </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>29.342347475025274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>2620.8000000000002</v>
-      </c>
-      <c r="F13">
-        <v>2.6208</v>
-      </c>
-      <c r="G13">
-        <v>0.47306166056166055</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>29.360663438558074</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2620.8000000000002</v>
+      </c>
+      <c r="F15">
+        <v>2.6208</v>
+      </c>
+      <c r="G15">
+        <v>0.47306166056166055</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>29.360663438558074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>704.5</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>0.70450000000000002</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>1.7598296664300923</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>36.631725301080003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>704.5</v>
-      </c>
-      <c r="F16">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="G16">
-        <v>1.7598296664300923</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>36.631725301080003</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>704.5</v>
+      </c>
+      <c r="F18">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="G18">
+        <v>1.7598296664300923</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>36.631725301080003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <v>524.9</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>0.52489999999999992</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>2.361973709277958</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>49.894163713914686</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>524.9</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>0.52489999999999992</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>2.361973709277958</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>49.894163713914686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2010.2</v>
+      </c>
+      <c r="F23">
+        <v>2.0102000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.61675455178589189</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>52.276548627455668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2009.3</v>
+      </c>
+      <c r="F24">
+        <v>2.0093000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.61703080674861888</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>52.301737613244079</v>
       </c>
     </row>
   </sheetData>
@@ -1630,20 +1826,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8F1304-BC33-4FFD-8C71-5FCFC788C03D}">
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1652,27 +1848,27 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2622.4</v>
+        <v>6403.9</v>
       </c>
       <c r="F2">
-        <v>2.6224000000000003</v>
+        <v>6.4038999999999993</v>
       </c>
       <c r="G2">
-        <v>0.47277303233679069</v>
+        <v>0.19360077452802202</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>65.391271586338178</v>
+        <v>52.514838497974978</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1681,27 +1877,27 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>2620.8000000000002</v>
+        <v>6390.9</v>
       </c>
       <c r="F3">
-        <v>2.6208</v>
+        <v>6.3908999999999994</v>
       </c>
       <c r="G3">
-        <v>0.47306166056166055</v>
+        <v>0.19399458605204278</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>65.436182088818185</v>
+        <v>52.629854515769516</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1710,27 +1906,27 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2307.8000000000002</v>
+        <v>8047.8</v>
       </c>
       <c r="F5">
-        <v>2.3078000000000003</v>
+        <v>8.0478000000000005</v>
       </c>
       <c r="G5">
-        <v>0.5372215963255047</v>
+        <v>0.15405452421779864</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>75.731472864487571</v>
+        <v>63.7481542449909</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1739,27 +1935,27 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>2306.6</v>
+        <v>8027.9</v>
       </c>
       <c r="F6">
-        <v>2.3066</v>
+        <v>8.0278999999999989</v>
       </c>
       <c r="G6">
-        <v>0.53750108384635398</v>
+        <v>0.15443640304438275</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>75.777832583784345</v>
+        <v>63.924869982826763</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1768,27 +1964,27 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2010.2</v>
+        <v>2622.4</v>
       </c>
       <c r="F8">
-        <v>2.0102000000000002</v>
+        <v>2.6224000000000003</v>
       </c>
       <c r="G8">
-        <v>0.61675455178589189</v>
+        <v>0.47277303233679069</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>89.608229545334453</v>
+        <v>65.391271586338178</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1797,27 +1993,27 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2009.3</v>
+        <v>2620.8000000000002</v>
       </c>
       <c r="F9">
-        <v>2.0093000000000001</v>
+        <v>2.6208</v>
       </c>
       <c r="G9">
-        <v>0.61703080674861888</v>
+        <v>0.47306166056166055</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>89.659218575385921</v>
+        <v>65.436182088818185</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -1826,27 +2022,27 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1740</v>
+        <v>2307.8000000000002</v>
       </c>
       <c r="F11">
-        <v>1.74</v>
+        <v>2.3078000000000003</v>
       </c>
       <c r="G11">
-        <v>0.71252873563218388</v>
+        <v>0.5372215963255047</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>108.99967344818242</v>
+        <v>75.731472864487571</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1855,18 +2051,134 @@
         <v>3</v>
       </c>
       <c r="E12">
+        <v>2306.6</v>
+      </c>
+      <c r="F12">
+        <v>2.3066</v>
+      </c>
+      <c r="G12">
+        <v>0.53750108384635398</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>75.777832583784345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2010.2</v>
+      </c>
+      <c r="F14">
+        <v>2.0102000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.61675455178589189</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>89.608229545334453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2009.3</v>
+      </c>
+      <c r="F15">
+        <v>2.0093000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.61703080674861888</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>89.659218575385921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1740</v>
+      </c>
+      <c r="F17">
+        <v>1.74</v>
+      </c>
+      <c r="G17">
+        <v>0.71252873563218388</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>108.99967344818242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>1739.4</v>
       </c>
-      <c r="F12">
+      <c r="F18">
         <v>1.7394000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G18">
         <v>0.71277451994940788</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>109.05510807174163</v>
       </c>
     </row>
@@ -1878,64 +2190,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF69CB5-7112-49A8-8EFE-36AB42834579}">
-  <dimension ref="A4:H5"/>
+  <dimension ref="A2:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>5946.7</v>
-      </c>
-      <c r="E4">
-        <v>5.9466999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.20848537844518811</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>144.66600443262834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>5946.7</v>
-      </c>
-      <c r="E5">
-        <v>5.9466999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.20848537844518811</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>144.66600443262834</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1486.9</v>
+      </c>
+      <c r="F2">
+        <v>1.4869000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.83381532046539775</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>144.61160278958508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1486.4</v>
+      </c>
+      <c r="F3">
+        <v>1.4864000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.83409580193756716</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>144.73262807483451</v>
       </c>
     </row>
   </sheetData>
